--- a/BackTest/2019-11-02 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-02 BackTest QTUM.xlsx
@@ -451,17 +451,13 @@
         <v>2472.933333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2479</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2479</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>2473.083333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>2473.283333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2477</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>2473.616666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>2473.95</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>2474.133333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>2474.333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>2474.516666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>2474.766666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2484</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>2475.016666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>2475.25</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2479</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>2475.366666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2482</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>2475.483333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>2475.583333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>2475.766666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2482</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>2475.933333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>2476.033333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2482</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>2476.116666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>2476.166666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>2476.35</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>2476.333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>2476.483333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2477</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>2476.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2484</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>2476.616666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>2476.766666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>2476.933333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>2476.983333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>2477.25</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2481</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>2477.616666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>2477.883333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2474</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>2478.016666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>2478.133333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>2478.45</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>2478.883333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>2479.116666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>2481</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>2479.366666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>2479.583333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>2484</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>2479.683333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>2487</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>2479.95</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2488</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>2480.233333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>2492</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2173,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2214,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2255,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2378,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2419,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2460,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2501,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2542,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2583,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2665,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3075,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3116,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3198,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3526,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3567,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3608,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3649,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3690,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3772,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3810,19 +3254,13 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1.010732150060508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3851,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3886,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3921,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3956,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -6018,13 +5456,17 @@
         <v>2494.383333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2470</v>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
@@ -6053,14 +5495,22 @@
         <v>2493.733333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2476</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5538,22 @@
         <v>2493.15</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2471</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6123,13 +5581,17 @@
         <v>2492.583333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2475</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2475</v>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
@@ -6158,14 +5620,22 @@
         <v>2492.016666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2476</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5663,22 @@
         <v>2491.35</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2476</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6228,13 +5706,17 @@
         <v>2490.8</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2475</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2475</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -6263,14 +5745,22 @@
         <v>2490.133333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2477</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +5788,22 @@
         <v>2489.566666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2475</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6333,17 +5831,13 @@
         <v>2488.983333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K154" t="n">
-        <v>2475</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
@@ -6372,237 +5866,201 @@
         <v>2488.4</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2473</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2474</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2473</v>
+      </c>
+      <c r="F156" t="n">
+        <v>30.0767</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2487.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F157" t="n">
+        <v>287.9972</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2487.116666666667</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2473</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2473</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F158" t="n">
+        <v>136.3093</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2486.666666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C159" t="n">
         <v>2475</v>
       </c>
-      <c r="K155" t="n">
+      <c r="D159" t="n">
         <v>2475</v>
       </c>
-      <c r="L155" t="inlineStr">
+      <c r="E159" t="n">
+        <v>2474</v>
+      </c>
+      <c r="F159" t="n">
+        <v>27.9943</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2486.266666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2473</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2473</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2475</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1043.3086</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2486</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2475</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2473</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>2473</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D156" t="n">
-        <v>2474</v>
-      </c>
-      <c r="E156" t="n">
-        <v>2473</v>
-      </c>
-      <c r="F156" t="n">
-        <v>30.0767</v>
-      </c>
-      <c r="G156" t="n">
-        <v>2487.8</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C157" t="n">
-        <v>2467</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2474</v>
-      </c>
-      <c r="E157" t="n">
-        <v>2467</v>
-      </c>
-      <c r="F157" t="n">
-        <v>287.9972</v>
-      </c>
-      <c r="G157" t="n">
-        <v>2487.116666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2474</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>2467</v>
-      </c>
-      <c r="C158" t="n">
-        <v>2473</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2473</v>
-      </c>
-      <c r="E158" t="n">
-        <v>2467</v>
-      </c>
-      <c r="F158" t="n">
-        <v>136.3093</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2486.666666666667</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2467</v>
-      </c>
-      <c r="K158" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2475</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2475</v>
-      </c>
-      <c r="E159" t="n">
-        <v>2474</v>
-      </c>
-      <c r="F159" t="n">
-        <v>27.9943</v>
-      </c>
-      <c r="G159" t="n">
-        <v>2486.266666666667</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2474</v>
-      </c>
-      <c r="K159" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="C160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="E160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1043.3086</v>
-      </c>
-      <c r="G160" t="n">
-        <v>2486</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K160" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6639,11 +6097,11 @@
         <v>2475</v>
       </c>
       <c r="K161" t="n">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M161" t="n">
@@ -6673,22 +6131,14 @@
         <v>2485.35</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6716,22 +6166,14 @@
         <v>2485.116666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K163" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6759,22 +6201,14 @@
         <v>2484.7</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>2471</v>
-      </c>
-      <c r="K164" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6802,22 +6236,14 @@
         <v>2484.416666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K165" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6845,22 +6271,14 @@
         <v>2483.983333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>2472</v>
-      </c>
-      <c r="K166" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6888,22 +6306,14 @@
         <v>2483.666666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>2466</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6931,22 +6341,14 @@
         <v>2483.533333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K168" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6974,22 +6376,14 @@
         <v>2483.283333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K169" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7017,22 +6411,14 @@
         <v>2483.033333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K170" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7060,22 +6446,14 @@
         <v>2482.466666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K171" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7103,22 +6481,14 @@
         <v>2481.816666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>2470</v>
-      </c>
-      <c r="K172" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7146,22 +6516,14 @@
         <v>2481.033333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>2464</v>
-      </c>
-      <c r="K173" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7189,22 +6551,14 @@
         <v>2480.25</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>2465</v>
-      </c>
-      <c r="K174" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7232,22 +6586,14 @@
         <v>2479.533333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>2467</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7275,22 +6621,14 @@
         <v>2478.716666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>2463</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7318,22 +6656,14 @@
         <v>2478.05</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>2471</v>
-      </c>
-      <c r="K177" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7361,22 +6691,14 @@
         <v>2477.516666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>2471</v>
-      </c>
-      <c r="K178" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7404,22 +6726,14 @@
         <v>2477.166666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>2467</v>
-      </c>
-      <c r="K179" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7447,22 +6761,14 @@
         <v>2476.733333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K180" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7490,22 +6796,14 @@
         <v>2476.466666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K181" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7533,22 +6831,14 @@
         <v>2476.3</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K182" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7576,22 +6866,14 @@
         <v>2476.166666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K183" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7619,22 +6901,14 @@
         <v>2475.983333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>2484</v>
-      </c>
-      <c r="K184" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7662,22 +6936,14 @@
         <v>2475.833333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>2477</v>
-      </c>
-      <c r="K185" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7705,22 +6971,14 @@
         <v>2475.533333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>2469</v>
-      </c>
-      <c r="K186" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7748,22 +7006,14 @@
         <v>2475.4</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K187" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7791,22 +7041,14 @@
         <v>2475.133333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>2471</v>
-      </c>
-      <c r="K188" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7834,22 +7076,14 @@
         <v>2474.75</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>2473</v>
-      </c>
-      <c r="K189" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7877,22 +7111,14 @@
         <v>2474.483333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>2479</v>
-      </c>
-      <c r="K190" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7920,22 +7146,14 @@
         <v>2474.266666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K191" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7963,22 +7181,14 @@
         <v>2474.05</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>2477</v>
-      </c>
-      <c r="K192" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8006,22 +7216,14 @@
         <v>2473.75</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K193" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8049,22 +7251,14 @@
         <v>2473.516666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K194" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8092,22 +7286,14 @@
         <v>2473.233333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K195" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8135,22 +7321,14 @@
         <v>2473.133333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>2478</v>
-      </c>
-      <c r="K196" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8178,22 +7356,14 @@
         <v>2473.516666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>2494</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8221,22 +7391,14 @@
         <v>2474.1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>2498</v>
-      </c>
-      <c r="K198" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8264,22 +7426,14 @@
         <v>2474.166666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>2507</v>
-      </c>
-      <c r="K199" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8313,14 +7467,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8395,14 +7537,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8430,22 +7566,14 @@
         <v>2474.1</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>2466</v>
-      </c>
-      <c r="K203" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8473,22 +7601,14 @@
         <v>2474.05</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K204" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8516,22 +7636,14 @@
         <v>2474.016666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>2474</v>
-      </c>
-      <c r="K205" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8559,22 +7671,14 @@
         <v>2474.1</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K206" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8602,22 +7706,14 @@
         <v>2473.983333333333</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K207" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8645,22 +7741,14 @@
         <v>2474.1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K208" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8688,22 +7776,14 @@
         <v>2474.183333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>2481</v>
-      </c>
-      <c r="K209" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8731,22 +7811,14 @@
         <v>2474.333333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>2483</v>
-      </c>
-      <c r="K210" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8774,22 +7846,14 @@
         <v>2474.366666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>2481</v>
-      </c>
-      <c r="K211" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8817,22 +7881,14 @@
         <v>2474.666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>2488</v>
-      </c>
-      <c r="K212" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8860,22 +7916,14 @@
         <v>2475.033333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>2492</v>
-      </c>
-      <c r="K213" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8903,22 +7951,14 @@
         <v>2475.416666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>2497</v>
-      </c>
-      <c r="K214" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8952,14 +7992,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8993,14 +8027,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9034,14 +8062,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9075,14 +8097,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +8132,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +8167,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9198,14 +8202,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9239,14 +8237,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9280,14 +8272,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9321,14 +8307,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9362,14 +8342,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9403,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9444,14 +8412,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9485,14 +8447,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9526,14 +8482,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +8517,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9608,14 +8552,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9649,14 +8587,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9690,14 +8622,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9731,14 +8657,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9772,14 +8692,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9813,14 +8727,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9854,14 +8762,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9895,14 +8797,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9936,14 +8832,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9977,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10059,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10100,14 +8972,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10141,14 +9007,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10182,14 +9042,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10223,14 +9077,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10264,14 +9112,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10305,14 +9147,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +9182,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10387,14 +9217,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10428,14 +9252,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10469,14 +9287,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10510,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10551,14 +9357,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10592,14 +9392,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10633,14 +9427,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10674,14 +9462,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10715,14 +9497,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10756,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +9567,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10838,14 +9602,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10879,14 +9637,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +9672,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10961,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11002,14 +9742,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11043,14 +9777,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11084,14 +9812,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11125,14 +9847,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11166,14 +9882,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11207,14 +9917,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11248,14 +9952,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11289,14 +9987,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11330,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11371,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11412,14 +10092,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11453,14 +10127,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11494,14 +10162,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11535,14 +10197,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11576,14 +10232,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +10267,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11658,14 +10302,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11699,14 +10337,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11740,14 +10372,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11781,14 +10407,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11822,14 +10442,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11860,19 +10474,13 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2475</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
-        <v>1.018434343434343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -16206,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
@@ -16241,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
@@ -16591,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-02 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3446.58744935</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3445.58744935</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2468</v>
@@ -521,7 +521,7 @@
         <v>3437.66704935</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2465</v>
@@ -562,7 +562,7 @@
         <v>3437.66704935</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2463</v>
@@ -603,7 +603,7 @@
         <v>3537.26704935</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2463</v>
@@ -644,7 +644,7 @@
         <v>3537.26704935</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2472</v>
@@ -685,7 +685,7 @@
         <v>3535.76704935</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2472</v>
@@ -726,7 +726,7 @@
         <v>3535.76704935</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2469</v>
@@ -767,7 +767,7 @@
         <v>3535.52114935</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2469</v>
@@ -808,7 +808,7 @@
         <v>3550.07304935</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2465</v>
@@ -849,7 +849,7 @@
         <v>3658.33194935</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2470</v>
@@ -890,7 +890,7 @@
         <v>3658.33194935</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2471</v>
@@ -931,7 +931,7 @@
         <v>4205.579249349999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>2471</v>
@@ -972,7 +972,7 @@
         <v>4189.456549349999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2472</v>
@@ -1013,7 +1013,7 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>2471</v>
@@ -1054,9 +1054,11 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2472</v>
+      </c>
       <c r="J17" t="n">
         <v>2468</v>
       </c>
@@ -1093,9 +1095,11 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2472</v>
+      </c>
       <c r="J18" t="n">
         <v>2468</v>
       </c>
@@ -1132,9 +1136,11 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2472</v>
+      </c>
       <c r="J19" t="n">
         <v>2468</v>
       </c>
@@ -1171,9 +1177,11 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2472</v>
+      </c>
       <c r="J20" t="n">
         <v>2468</v>
       </c>
@@ -1210,9 +1218,11 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2472</v>
+      </c>
       <c r="J21" t="n">
         <v>2468</v>
       </c>
@@ -1249,9 +1259,11 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2475</v>
+      </c>
       <c r="J22" t="n">
         <v>2468</v>
       </c>
@@ -1288,9 +1300,11 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2475</v>
+      </c>
       <c r="J23" t="n">
         <v>2468</v>
       </c>
@@ -1366,9 +1380,11 @@
         <v>4554.341549349999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2469</v>
+      </c>
       <c r="J25" t="n">
         <v>2468</v>
       </c>
@@ -1405,9 +1421,11 @@
         <v>4603.159549349999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2468</v>
+      </c>
       <c r="J26" t="n">
         <v>2468</v>
       </c>
@@ -1444,9 +1462,11 @@
         <v>4384.030449349999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2473</v>
+      </c>
       <c r="J27" t="n">
         <v>2468</v>
       </c>
@@ -1483,9 +1503,11 @@
         <v>4201.030449349999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2472</v>
+      </c>
       <c r="J28" t="n">
         <v>2468</v>
       </c>
@@ -1522,9 +1544,11 @@
         <v>4198.835949349999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2465</v>
+      </c>
       <c r="J29" t="n">
         <v>2468</v>
       </c>
@@ -1561,9 +1585,11 @@
         <v>4204.445549349999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2459</v>
+      </c>
       <c r="J30" t="n">
         <v>2468</v>
       </c>
@@ -1600,7 +1626,7 @@
         <v>4251.746649349999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>2465</v>
@@ -1641,7 +1667,7 @@
         <v>4136.503149349999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>2473</v>
@@ -1682,9 +1708,11 @@
         <v>4021.025749349999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2468</v>
+      </c>
       <c r="J33" t="n">
         <v>2468</v>
       </c>
@@ -1721,7 +1749,7 @@
         <v>2094.914449349999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>2463</v>
@@ -1762,7 +1790,7 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>2459</v>
@@ -1803,7 +1831,7 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>2467</v>
@@ -1844,7 +1872,7 @@
         <v>9112.661049349999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>2467</v>
@@ -1885,7 +1913,7 @@
         <v>9771.051249349999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>2471</v>
@@ -5943,7 +5971,7 @@
         <v>17839.89224881</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
@@ -5951,11 +5979,11 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.012828200972447</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
     </row>
@@ -5985,8 +6013,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6018,8 +6052,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6051,8 +6091,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6084,8 +6130,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6117,8 +6169,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6150,8 +6208,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6183,8 +6247,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6216,8 +6286,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6249,8 +6325,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6282,8 +6364,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6315,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6348,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6381,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6414,8 +6520,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6447,8 +6559,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6480,8 +6598,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6513,8 +6637,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6546,8 +6676,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6579,8 +6715,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6612,8 +6754,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6645,8 +6793,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6678,8 +6832,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6711,8 +6871,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6744,8 +6910,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6777,8 +6949,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6810,8 +6988,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6843,8 +7027,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6876,8 +7066,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6909,8 +7105,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6942,8 +7144,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6972,11 +7180,17 @@
         <v>13979.55775894001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7005,11 +7219,17 @@
         <v>12384.64285894001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7038,11 +7258,17 @@
         <v>12977.72125894001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7071,11 +7297,17 @@
         <v>12977.72125894001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +7336,17 @@
         <v>12727.72125894001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +7414,17 @@
         <v>14353.80565894001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7203,11 +7453,17 @@
         <v>13700.82015894001</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7236,11 +7492,17 @@
         <v>13700.82015894001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7269,11 +7531,17 @@
         <v>13700.92015894001</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7302,11 +7570,17 @@
         <v>13417.50665894</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7335,11 +7609,17 @@
         <v>13357.12015894</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7368,11 +7648,17 @@
         <v>13506.74515894</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +7687,17 @@
         <v>13506.74515894</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7434,11 +7726,17 @@
         <v>10924.54265894</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7467,11 +7765,17 @@
         <v>10924.64265894001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7500,11 +7804,17 @@
         <v>10919.47715894001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7536,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7566,11 +7882,17 @@
         <v>10711.87575894</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +7921,17 @@
         <v>10715.88535894</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7632,11 +7960,17 @@
         <v>10598.38535894</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +8002,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7698,11 +8038,17 @@
         <v>12901.98845894</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7731,11 +8077,17 @@
         <v>12332.53835894</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7764,11 +8116,17 @@
         <v>11025.85795894001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7800,8 +8158,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +8194,17 @@
         <v>11846.15595894001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7863,11 +8233,17 @@
         <v>11947.45595894001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +8272,17 @@
         <v>11531.18935894</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7929,11 +8311,17 @@
         <v>11531.18935894</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7962,11 +8350,17 @@
         <v>11531.18935894</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7995,11 +8389,17 @@
         <v>11559.74275894</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +8428,17 @@
         <v>10929.10455894001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8064,8 +8470,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8097,8 +8509,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8130,8 +8548,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8163,8 +8587,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8196,8 +8626,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8229,8 +8665,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8704,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8295,8 +8743,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8328,8 +8782,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8361,8 +8821,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8394,8 +8860,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8427,8 +8899,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8460,8 +8938,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8493,8 +8977,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8526,8 +9016,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8559,8 +9055,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8592,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8625,8 +9133,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8658,8 +9172,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8691,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8724,8 +9250,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8757,8 +9289,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8790,8 +9328,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8823,8 +9367,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8856,8 +9406,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8889,8 +9445,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8922,8 +9484,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8955,8 +9523,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8988,8 +9562,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9021,8 +9601,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9054,8 +9640,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9087,8 +9679,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9120,8 +9718,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9153,8 +9757,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9186,8 +9796,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9219,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9252,8 +9874,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9285,8 +9913,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9318,8 +9952,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9351,8 +9991,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9384,8 +10030,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9417,8 +10069,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9450,8 +10108,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9483,8 +10147,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9516,8 +10186,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9549,8 +10225,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9582,8 +10264,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9615,8 +10303,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9648,8 +10342,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9681,8 +10381,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9714,8 +10420,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9747,8 +10459,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9780,8 +10498,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9813,8 +10537,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9846,8 +10576,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9879,8 +10615,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9912,8 +10654,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9945,8 +10693,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9978,8 +10732,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10011,8 +10771,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10044,8 +10810,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10077,8 +10849,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10110,8 +10888,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10143,8 +10927,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10176,8 +10966,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10209,8 +11005,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10242,8 +11044,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10272,11 +11080,17 @@
         <v>1053.568698190005</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +11119,17 @@
         <v>965.8646981900047</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10341,8 +11161,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10371,11 +11197,17 @@
         <v>965.9646981900047</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10404,11 +11236,17 @@
         <v>2009.079498190005</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10437,11 +11275,17 @@
         <v>1290.962798190005</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10473,8 +11317,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10503,11 +11353,17 @@
         <v>830.8496981900048</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +11392,17 @@
         <v>1091.318798190005</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10605,8 +11473,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10638,8 +11512,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10671,8 +11551,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10704,8 +11590,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10737,8 +11629,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10767,11 +11665,17 @@
         <v>829.5451981900047</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10803,8 +11707,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10833,11 +11743,17 @@
         <v>320.1733981900047</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10869,8 +11785,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10899,11 +11821,17 @@
         <v>564.6451981900047</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10932,11 +11860,17 @@
         <v>564.7451981900048</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +11899,17 @@
         <v>-11.97130180999523</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11001,8 +11941,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11031,11 +11977,17 @@
         <v>-8.971301809995225</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +12016,17 @@
         <v>-52.97130180999523</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11100,8 +12058,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11133,8 +12097,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11166,8 +12136,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11199,8 +12175,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11232,8 +12214,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11265,8 +12253,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +12289,17 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +12328,17 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +12367,17 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11397,8 +12409,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11430,8 +12448,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11463,8 +12487,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11496,8 +12526,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11529,8 +12565,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11562,8 +12604,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11595,8 +12643,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11628,8 +12682,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11661,8 +12721,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11694,8 +12760,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +12799,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +12838,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +12877,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +12916,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11859,8 +12955,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11892,8 +12994,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11925,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +13072,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11991,8 +13111,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +13150,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12057,8 +13189,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12087,11 +13225,17 @@
         <v>2398.494676260005</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12120,11 +13264,17 @@
         <v>3096.150176260005</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +13303,17 @@
         <v>3440.814276260005</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12186,11 +13342,17 @@
         <v>-1580.754623739995</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12219,11 +13381,17 @@
         <v>-755.2546237399952</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +13420,17 @@
         <v>-1718.658423739995</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +13459,17 @@
         <v>-1463.658423739995</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12321,8 +13501,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12354,8 +13540,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12387,8 +13579,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12420,8 +13618,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12450,11 +13654,17 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12483,11 +13693,17 @@
         <v>2526.820176260005</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12519,8 +13735,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12549,11 +13771,17 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +13810,17 @@
         <v>2429.620176260004</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12615,11 +13849,17 @@
         <v>1964.604876260004</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +13888,17 @@
         <v>2021.130576260004</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12681,11 +13927,17 @@
         <v>2022.130576260004</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12714,11 +13966,17 @@
         <v>1484.753476260004</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12750,8 +14008,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12783,8 +14047,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12816,8 +14086,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12849,8 +14125,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +14164,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12915,8 +14203,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12948,8 +14242,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12981,8 +14281,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13014,8 +14320,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13047,8 +14359,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13080,8 +14398,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13113,8 +14437,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13143,11 +14473,17 @@
         <v>-977.0020237399953</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13179,8 +14515,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13212,8 +14554,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13245,8 +14593,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13278,8 +14632,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13311,8 +14671,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13341,11 +14707,17 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13377,8 +14749,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13407,11 +14785,17 @@
         <v>-1710.979823739995</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13443,8 +14827,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13476,8 +14866,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13509,8 +14905,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13539,11 +14941,17 @@
         <v>-567.079423739995</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13572,11 +14980,17 @@
         <v>-859.6816237399951</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +15022,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13641,8 +15061,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13671,11 +15097,17 @@
         <v>160.041276260005</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13704,11 +15136,17 @@
         <v>160.041276260005</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13737,11 +15175,17 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13770,11 +15214,17 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13803,11 +15253,17 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13836,11 +15292,17 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +15331,17 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13902,11 +15370,17 @@
         <v>-330.222623739995</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13935,11 +15409,17 @@
         <v>-224.070523739995</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13968,11 +15448,17 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14001,11 +15487,17 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +15529,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14067,11 +15565,17 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14100,11 +15604,17 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14133,11 +15643,17 @@
         <v>-300.171923739995</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +15682,17 @@
         <v>-300.171923739995</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14199,11 +15721,17 @@
         <v>-468.272323739995</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14232,11 +15760,17 @@
         <v>-270.448826909995</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14265,11 +15799,17 @@
         <v>-901.061126909995</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14298,11 +15838,17 @@
         <v>-900.961126909995</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14331,11 +15877,17 @@
         <v>-988.6801269099949</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +15916,17 @@
         <v>-2099.260726909995</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14397,11 +15955,17 @@
         <v>-2095.641326909995</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14430,11 +15994,17 @@
         <v>-1526.551926909995</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14463,11 +16033,17 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14496,11 +16072,17 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14529,11 +16111,17 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +16150,17 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14595,11 +16189,17 @@
         <v>-2237.020226909995</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14631,8 +16231,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14661,11 +16267,17 @@
         <v>-1601.494026909995</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14697,8 +16309,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14730,8 +16348,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14763,8 +16387,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14793,11 +16423,17 @@
         <v>-402.5613269099951</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14829,8 +16465,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14862,8 +16504,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14895,8 +16543,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14928,8 +16582,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14961,8 +16621,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14994,8 +16660,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15027,8 +16699,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15060,8 +16738,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15093,8 +16777,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15126,8 +16816,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15159,8 +16855,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15192,8 +16894,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15225,8 +16933,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15258,8 +16972,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15291,8 +17011,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15324,8 +17050,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15357,8 +17089,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15390,8 +17128,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15423,8 +17167,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15456,8 +17206,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15489,8 +17245,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15522,8 +17284,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15555,8 +17323,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15588,8 +17362,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15621,8 +17401,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15654,8 +17440,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15687,8 +17479,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15720,8 +17518,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15753,8 +17557,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15786,8 +17596,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15819,8 +17635,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15852,8 +17674,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15885,8 +17713,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15918,8 +17752,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15948,11 +17788,19 @@
         <v>-25717.63100709999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2504</v>
+      </c>
+      <c r="J445" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15981,11 +17829,19 @@
         <v>-22911.05560709998</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J446" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16014,11 +17870,19 @@
         <v>-23014.25560709999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2514</v>
+      </c>
+      <c r="J447" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16050,8 +17914,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16083,8 +17953,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16116,8 +17992,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16149,8 +18031,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16182,8 +18070,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16215,8 +18109,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16248,8 +18148,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16281,8 +18187,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16314,8 +18226,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16347,8 +18265,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16380,8 +18304,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16413,8 +18343,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16446,8 +18382,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16479,8 +18421,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16512,8 +18460,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16545,8 +18499,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16578,8 +18538,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16611,8 +18577,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16644,8 +18616,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16677,8 +18655,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16710,8 +18694,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16743,8 +18733,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16776,8 +18772,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16809,8 +18811,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16842,8 +18850,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16875,8 +18889,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16908,8 +18928,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16941,8 +18967,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16974,8 +19006,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17007,8 +19045,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17040,8 +19084,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17073,8 +19123,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +19159,17 @@
         <v>33504.87613727</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17139,8 +19201,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17169,11 +19237,17 @@
         <v>31257.63573727</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17202,11 +19276,17 @@
         <v>31578.25263727</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17238,8 +19318,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17271,8 +19357,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17304,8 +19396,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17337,8 +19435,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17370,8 +19474,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17403,8 +19513,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17436,8 +19552,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17469,8 +19591,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17502,8 +19630,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17535,8 +19669,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17568,8 +19708,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17601,8 +19747,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17634,8 +19786,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17667,8 +19825,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17700,8 +19864,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17730,13 +19900,19 @@
         <v>37047.01521468</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L499" t="n">
-        <v>1</v>
+        <v>1.040786061588331</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
@@ -17862,7 +20038,7 @@
         <v>37001.67468098</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17895,7 +20071,7 @@
         <v>36995.67468098</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17928,7 +20104,7 @@
         <v>37090.67468098</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17961,7 +20137,7 @@
         <v>35547.35108098</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17994,7 +20170,7 @@
         <v>36261.83478098</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18093,7 +20269,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18126,7 +20302,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18159,7 +20335,7 @@
         <v>35504.2683943</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18192,7 +20368,7 @@
         <v>34876.2432943</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18225,7 +20401,7 @@
         <v>34871.2432943</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18258,7 +20434,7 @@
         <v>35636.0723943</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18291,7 +20467,7 @@
         <v>35697.92259430001</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18302,6 +20478,6 @@
       <c r="M516" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-02 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1013,11 +1013,9 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>2468</v>
       </c>
@@ -1095,11 +1093,9 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>2468</v>
       </c>
@@ -1259,11 +1255,9 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>2468</v>
       </c>
@@ -1300,11 +1294,9 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>2468</v>
       </c>
@@ -1421,11 +1413,9 @@
         <v>4603.159549349999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>2468</v>
       </c>
@@ -1462,11 +1452,9 @@
         <v>4384.030449349999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>2468</v>
       </c>
@@ -1503,11 +1491,9 @@
         <v>4201.030449349999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>2468</v>
       </c>
@@ -1667,11 +1653,9 @@
         <v>4136.503149349999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>2468</v>
       </c>
@@ -1790,11 +1774,9 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>2468</v>
       </c>
@@ -1831,11 +1813,9 @@
         <v>8567.661049349999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>2468</v>
       </c>
@@ -1872,11 +1852,9 @@
         <v>9112.661049349999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>2468</v>
       </c>
@@ -1913,11 +1891,9 @@
         <v>9771.051249349999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>2468</v>
       </c>
@@ -5113,7 +5089,7 @@
         <v>12495.11639365</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
@@ -5121,11 +5097,11 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>1.011207455429498</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -5152,17 +5128,11 @@
         <v>10964.12189365</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5191,17 +5161,11 @@
         <v>10964.12189365</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5230,17 +5194,11 @@
         <v>14245.42334881</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5269,17 +5227,11 @@
         <v>14012.37504881</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5308,17 +5260,11 @@
         <v>14169.50614881</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5347,17 +5293,11 @@
         <v>14133.59064881</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5386,17 +5326,11 @@
         <v>14133.59064881</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5425,17 +5359,11 @@
         <v>15142.37854881</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5464,17 +5392,11 @@
         <v>15142.37854881</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5503,17 +5425,11 @@
         <v>15129.54444881</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5542,17 +5458,11 @@
         <v>15309.71294881</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5581,17 +5491,11 @@
         <v>15009.03574881</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5620,17 +5524,11 @@
         <v>15036.78084881</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5659,17 +5557,11 @@
         <v>15036.78084881</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5698,17 +5590,11 @@
         <v>14970.68554881</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5737,17 +5623,11 @@
         <v>14724.56054881</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5776,17 +5656,11 @@
         <v>14886.79934881</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5815,17 +5689,11 @@
         <v>18033.70244881</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5854,17 +5722,11 @@
         <v>17839.89224881</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5893,17 +5755,11 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5932,17 +5788,11 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5971,17 +5821,11 @@
         <v>17839.89224881</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6010,17 +5854,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6049,17 +5887,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6088,17 +5920,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6127,17 +5953,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6166,17 +5986,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6205,17 +6019,11 @@
         <v>16348.10904881</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6244,17 +6052,11 @@
         <v>17809.04605894</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6283,17 +6085,11 @@
         <v>17719.26655894</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6322,17 +6118,11 @@
         <v>17719.26655894</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6361,17 +6151,11 @@
         <v>17719.26655894</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6400,17 +6184,11 @@
         <v>17719.26655894</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6439,17 +6217,11 @@
         <v>17719.26655894</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6481,14 +6253,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6520,14 +6286,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6559,14 +6319,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6598,14 +6352,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6637,14 +6385,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6676,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6715,14 +6451,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6754,14 +6484,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6793,14 +6517,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6832,14 +6550,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6871,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6910,14 +6616,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6949,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6988,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7027,14 +6715,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7066,14 +6748,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7105,14 +6781,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7144,14 +6814,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7183,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7222,14 +6880,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7261,14 +6913,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7300,14 +6946,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7339,14 +6979,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7378,14 +7012,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7417,14 +7045,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7456,14 +7078,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7495,14 +7111,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7534,14 +7144,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7573,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7612,14 +7210,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7651,14 +7243,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7690,14 +7276,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7729,14 +7309,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7768,14 +7342,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7807,14 +7375,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7846,14 +7408,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7885,14 +7441,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7924,14 +7474,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7963,14 +7507,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8002,14 +7540,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8041,14 +7573,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8080,14 +7606,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8119,14 +7639,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8158,14 +7672,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8197,14 +7705,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8236,14 +7738,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8275,14 +7771,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8314,14 +7804,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8353,14 +7837,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8392,14 +7870,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8431,14 +7903,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8470,14 +7936,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8509,14 +7969,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8548,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8587,14 +8035,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8626,14 +8068,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8665,14 +8101,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8704,14 +8134,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +8167,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8782,14 +8200,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +8233,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8860,14 +8266,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +8299,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8938,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8977,14 +8365,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9016,14 +8398,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9055,14 +8431,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9094,14 +8464,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9133,14 +8497,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9172,14 +8530,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9211,14 +8563,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9250,14 +8596,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9289,14 +8629,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +8662,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9367,14 +8695,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +8728,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9445,14 +8761,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9484,14 +8794,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9523,14 +8827,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9562,14 +8860,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9601,14 +8893,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9640,14 +8926,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9679,14 +8959,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +8992,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9757,14 +9025,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +9058,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9835,14 +9091,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9874,14 +9124,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +9190,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +9223,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10030,14 +9256,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10069,14 +9289,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10108,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10147,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10186,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10225,14 +9421,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10264,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10303,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10342,14 +9520,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10381,14 +9553,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +9586,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10459,14 +9619,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10498,14 +9652,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10537,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10576,14 +9718,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10615,14 +9751,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10654,14 +9784,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10693,14 +9817,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10732,14 +9850,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10771,14 +9883,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10810,14 +9916,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10849,14 +9949,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10888,14 +9982,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10927,14 +10015,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10966,14 +10048,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11005,14 +10081,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11044,14 +10114,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11083,14 +10147,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11122,14 +10180,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11161,14 +10213,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11200,14 +10246,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11239,14 +10279,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11275,17 +10309,11 @@
         <v>1290.962798190005</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11314,17 +10342,11 @@
         <v>1291.062798190005</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11353,17 +10375,11 @@
         <v>830.8496981900048</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11392,17 +10408,11 @@
         <v>1091.318798190005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11431,17 +10441,11 @@
         <v>956.1163981900048</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11470,17 +10474,11 @@
         <v>961.4851981900048</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11512,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11551,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11587,17 +10573,11 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11626,17 +10606,11 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11665,17 +10639,11 @@
         <v>829.5451981900047</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11704,17 +10672,11 @@
         <v>728.2029981900047</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11743,17 +10705,11 @@
         <v>320.1733981900047</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11782,17 +10738,11 @@
         <v>570.1733981900047</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11821,17 +10771,11 @@
         <v>564.6451981900047</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11860,17 +10804,11 @@
         <v>564.7451981900048</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11899,17 +10837,11 @@
         <v>-11.97130180999523</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11938,17 +10870,11 @@
         <v>-10.97130180999523</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11977,17 +10903,11 @@
         <v>-8.971301809995225</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12016,17 +10936,11 @@
         <v>-52.97130180999523</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12055,17 +10969,11 @@
         <v>-120.4852018099952</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12097,14 +11005,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12136,14 +11038,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12175,14 +11071,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12211,17 +11101,11 @@
         <v>184.1714981900048</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12253,14 +11137,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12292,14 +11170,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12331,14 +11203,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12367,17 +11233,11 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12406,17 +11266,11 @@
         <v>305.1404762600048</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12445,17 +11299,11 @@
         <v>375.1803762600048</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12484,17 +11332,11 @@
         <v>373.4247762600048</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12523,17 +11365,11 @@
         <v>450.7547762600047</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12562,17 +11398,11 @@
         <v>568.7128762600048</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12601,17 +11431,11 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12640,17 +11464,11 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12679,17 +11497,11 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12718,17 +11530,11 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12757,17 +11563,11 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12796,17 +11596,11 @@
         <v>214.6808762600048</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12835,17 +11629,11 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12874,17 +11662,11 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12913,17 +11695,11 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12952,17 +11728,11 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12991,17 +11761,11 @@
         <v>1331.738476260005</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13030,17 +11794,11 @@
         <v>1261.362176260005</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13069,17 +11827,11 @@
         <v>1261.462176260005</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13108,17 +11860,11 @@
         <v>2541.463776260005</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13147,17 +11893,11 @@
         <v>2588.363776260005</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13186,17 +11926,11 @@
         <v>1983.494676260005</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13225,17 +11959,11 @@
         <v>2398.494676260005</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13264,17 +11992,11 @@
         <v>3096.150176260005</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13303,17 +12025,11 @@
         <v>3440.814276260005</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13342,17 +12058,11 @@
         <v>-1580.754623739995</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13381,17 +12091,11 @@
         <v>-755.2546237399952</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13420,17 +12124,11 @@
         <v>-1718.658423739995</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13459,17 +12157,11 @@
         <v>-1463.658423739995</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13498,17 +12190,11 @@
         <v>-1639.931723739995</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13537,17 +12223,11 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13576,17 +12256,11 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13615,17 +12289,11 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13654,17 +12322,11 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13693,17 +12355,11 @@
         <v>2526.820176260005</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13732,17 +12388,11 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13771,17 +12421,11 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13810,17 +12454,11 @@
         <v>2429.620176260004</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13849,17 +12487,11 @@
         <v>1964.604876260004</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13888,17 +12520,11 @@
         <v>2021.130576260004</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13927,17 +12553,11 @@
         <v>2022.130576260004</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13966,17 +12586,11 @@
         <v>1484.753476260004</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14005,17 +12619,11 @@
         <v>1571.724676260004</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14044,17 +12652,11 @@
         <v>1308.496976260004</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14083,17 +12685,11 @@
         <v>837.4969762600044</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14122,17 +12718,11 @@
         <v>931.5969762600045</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14161,17 +12751,11 @@
         <v>733.3082762600045</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14200,17 +12784,11 @@
         <v>693.5942762600046</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14242,14 +12820,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14281,14 +12853,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14317,17 +12883,11 @@
         <v>-1283.037723739995</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14356,17 +12916,11 @@
         <v>-1033.037723739995</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14395,17 +12949,11 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14434,17 +12982,11 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14473,17 +13015,11 @@
         <v>-977.0020237399953</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14512,17 +13048,11 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14551,17 +13081,11 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14590,17 +13114,11 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14629,17 +13147,11 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14668,17 +13180,11 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14707,17 +13213,11 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14746,17 +13246,11 @@
         <v>-1455.598723739995</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14785,17 +13279,11 @@
         <v>-1710.979823739995</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14824,17 +13312,11 @@
         <v>-2121.042123739995</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14863,17 +13345,11 @@
         <v>-1361.732923739995</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14902,17 +13378,11 @@
         <v>-962.805123739995</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14941,17 +13411,11 @@
         <v>-567.079423739995</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14980,17 +13444,11 @@
         <v>-859.6816237399951</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15019,17 +13477,11 @@
         <v>-346.655523739995</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15061,14 +13513,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15097,17 +13543,11 @@
         <v>160.041276260005</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15139,14 +13579,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15178,14 +13612,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15217,14 +13645,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15253,17 +13675,11 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15292,17 +13708,11 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15331,17 +13741,11 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15370,17 +13774,11 @@
         <v>-330.222623739995</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15409,17 +13807,11 @@
         <v>-224.070523739995</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15448,17 +13840,11 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15487,17 +13873,11 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15526,17 +13906,11 @@
         <v>-136.232623739995</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15565,17 +13939,11 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15604,17 +13972,11 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15646,14 +14008,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15685,14 +14041,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15724,14 +14074,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15763,14 +14107,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15802,14 +14140,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15841,14 +14173,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15880,14 +14206,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15919,14 +14239,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15958,14 +14272,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15994,17 +14302,11 @@
         <v>-1526.551926909995</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16033,17 +14335,11 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16072,17 +14368,11 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16111,17 +14401,11 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16150,17 +14434,11 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16189,17 +14467,11 @@
         <v>-2237.020226909995</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16228,17 +14500,11 @@
         <v>-1622.980326909995</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16270,14 +14536,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16309,14 +14569,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16348,14 +14602,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16387,14 +14635,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16426,14 +14668,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16465,14 +14701,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16504,14 +14734,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16543,14 +14767,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16579,17 +14797,11 @@
         <v>-275.5780269099951</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16618,17 +14830,11 @@
         <v>-375.6780269099951</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16657,17 +14863,11 @@
         <v>862.221973090005</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16696,17 +14896,11 @@
         <v>862.221973090005</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16735,17 +14929,11 @@
         <v>862.221973090005</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16774,17 +14962,11 @@
         <v>862.221973090005</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16816,14 +14998,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16852,17 +15028,11 @@
         <v>762.221973090005</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16891,17 +15061,11 @@
         <v>248.9966730900051</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16933,14 +15097,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16972,14 +15130,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17011,14 +15163,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17050,14 +15196,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17089,14 +15229,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17128,14 +15262,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17167,14 +15295,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17206,14 +15328,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17245,14 +15361,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17284,14 +15394,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17323,14 +15427,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17362,14 +15460,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17401,14 +15493,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17440,14 +15526,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17479,14 +15559,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17518,14 +15592,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17557,14 +15625,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17596,14 +15658,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17635,14 +15691,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17674,14 +15724,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17713,14 +15757,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17752,14 +15790,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17788,19 +15820,11 @@
         <v>-25717.63100709999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J445" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17829,19 +15853,11 @@
         <v>-22911.05560709998</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J446" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17870,19 +15886,11 @@
         <v>-23014.25560709999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>2514</v>
-      </c>
-      <c r="J447" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17914,14 +15922,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17953,14 +15955,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17992,14 +15988,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18031,14 +16021,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18070,14 +16054,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18109,14 +16087,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18148,14 +16120,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18187,14 +16153,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18226,14 +16186,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18265,14 +16219,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18304,14 +16252,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18343,14 +16285,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18382,14 +16318,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18418,17 +16348,11 @@
         <v>-15137.02247737999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18457,17 +16381,11 @@
         <v>-12873.50045371999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18496,17 +16414,11 @@
         <v>-9606.30585371999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18535,17 +16447,11 @@
         <v>-6855.210853719991</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18574,17 +16480,11 @@
         <v>-8164.692153719991</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18613,17 +16513,11 @@
         <v>-7768.739853719991</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18652,17 +16546,11 @@
         <v>-3962.633153719991</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18694,14 +16582,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18733,14 +16615,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18772,14 +16648,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18811,14 +16681,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18850,14 +16714,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18889,14 +16747,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18928,14 +16780,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18967,14 +16813,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19006,14 +16846,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19045,14 +16879,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19084,14 +16912,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19123,14 +16945,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19162,14 +16978,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19201,14 +17011,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19240,14 +17044,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19279,14 +17077,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19318,14 +17110,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19357,14 +17143,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19396,14 +17176,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19435,14 +17209,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19474,14 +17242,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19513,14 +17275,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19552,14 +17308,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19591,14 +17341,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19630,14 +17374,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19669,14 +17407,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19708,14 +17440,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19747,14 +17473,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19786,14 +17506,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19825,14 +17539,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19864,14 +17572,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19900,19 +17602,13 @@
         <v>37047.01521468</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
-        <v>1.040786061588331</v>
+        <v>1</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
@@ -20038,7 +17734,7 @@
         <v>37001.67468098</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -20071,7 +17767,7 @@
         <v>36995.67468098</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -20104,7 +17800,7 @@
         <v>37090.67468098</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20137,7 +17833,7 @@
         <v>35547.35108098</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20170,7 +17866,7 @@
         <v>36261.83478098</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20269,7 +17965,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20302,7 +17998,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20335,7 +18031,7 @@
         <v>35504.2683943</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20368,7 +18064,7 @@
         <v>34876.2432943</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20401,7 +18097,7 @@
         <v>34871.2432943</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20434,7 +18130,7 @@
         <v>35636.0723943</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20467,7 +18163,7 @@
         <v>35697.92259430001</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20478,6 +18174,6 @@
       <c r="M516" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-02 BackTest QTUM.xlsx
@@ -1052,11 +1052,9 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>2468</v>
       </c>
@@ -1132,11 +1130,9 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>2468</v>
       </c>
@@ -1173,11 +1169,9 @@
         <v>4630.015249349999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>2468</v>
       </c>
@@ -1214,11 +1208,9 @@
         <v>4661.003849349999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>2468</v>
       </c>
@@ -1372,11 +1364,9 @@
         <v>4554.341549349999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>2468</v>
       </c>
@@ -1530,11 +1520,9 @@
         <v>4198.835949349999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>2468</v>
       </c>
@@ -1612,11 +1600,9 @@
         <v>4251.746649349999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>2468</v>
       </c>
@@ -1692,11 +1678,9 @@
         <v>4021.025749349999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>2468</v>
       </c>
@@ -1733,11 +1717,9 @@
         <v>2094.914449349999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>2468</v>
       </c>
@@ -5089,7 +5071,7 @@
         <v>12495.11639365</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
@@ -5097,11 +5079,11 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.011207455429498</v>
+        <v>1</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -5128,11 +5110,17 @@
         <v>10964.12189365</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +5149,17 @@
         <v>10964.12189365</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +5188,17 @@
         <v>14245.42334881</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +5227,17 @@
         <v>14012.37504881</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5260,11 +5266,17 @@
         <v>14169.50614881</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5293,11 +5305,17 @@
         <v>14133.59064881</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +5344,17 @@
         <v>14133.59064881</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5383,17 @@
         <v>15142.37854881</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +5422,17 @@
         <v>15142.37854881</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +5461,17 @@
         <v>15129.54444881</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +5500,17 @@
         <v>15309.71294881</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5539,17 @@
         <v>15009.03574881</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5578,17 @@
         <v>15036.78084881</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5617,17 @@
         <v>15036.78084881</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5656,17 @@
         <v>14970.68554881</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5695,17 @@
         <v>14724.56054881</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +5734,17 @@
         <v>14886.79934881</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5773,17 @@
         <v>18033.70244881</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +5812,17 @@
         <v>17839.89224881</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5755,11 +5851,17 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +5890,17 @@
         <v>18237.13454881001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5929,17 @@
         <v>17839.89224881</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +5968,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +6007,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +6046,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +6085,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +6124,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +6163,17 @@
         <v>16348.10904881</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6052,11 +6202,17 @@
         <v>17809.04605894</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +6241,17 @@
         <v>17719.26655894</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6118,11 +6280,17 @@
         <v>17719.26655894</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +6319,17 @@
         <v>17719.26655894</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6184,11 +6358,17 @@
         <v>17719.26655894</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6397,17 @@
         <v>17719.26655894</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6253,8 +6439,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6286,8 +6478,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6319,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6352,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6385,8 +6595,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6418,8 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6451,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6484,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +6751,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6550,8 +6790,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +6829,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6616,8 +6868,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6649,8 +6907,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6682,8 +6946,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6715,8 +6985,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6748,8 +7024,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6781,8 +7063,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6814,8 +7102,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6847,8 +7141,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6880,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6913,8 +7219,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6946,8 +7258,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6979,8 +7297,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7012,8 +7336,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7045,8 +7375,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7078,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7111,8 +7453,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7492,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7531,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7210,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7243,8 +7609,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7276,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7309,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7342,8 +7726,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7375,8 +7765,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7408,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7441,8 +7843,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7474,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7507,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7540,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7573,8 +7999,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7606,8 +8038,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7639,8 +8077,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7672,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7705,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7738,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7771,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7804,8 +8272,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7837,8 +8311,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7870,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7903,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7936,8 +8428,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7969,8 +8467,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8002,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8035,8 +8545,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8068,8 +8584,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8134,8 +8662,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8167,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8200,8 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8233,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8266,8 +8818,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8299,8 +8857,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8896,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8365,8 +8935,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8398,8 +8974,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8431,8 +9013,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8464,8 +9052,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8497,8 +9091,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +9130,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +9169,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8596,8 +9208,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +9247,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8662,8 +9286,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8695,8 +9325,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8728,8 +9364,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8761,8 +9403,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8794,8 +9442,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8827,8 +9481,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8860,8 +9520,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8893,8 +9559,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +9598,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8959,8 +9637,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8992,8 +9676,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9025,8 +9715,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9058,8 +9754,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9091,8 +9793,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +9832,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9157,8 +9871,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9190,8 +9910,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9223,8 +9949,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +9988,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9289,8 +10027,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +10066,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +10105,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +10144,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9421,8 +10183,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +10222,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +10261,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9520,8 +10300,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +10339,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9586,8 +10378,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9619,8 +10417,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9652,8 +10456,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9685,8 +10495,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9718,8 +10534,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9751,8 +10573,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10612,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +10651,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +10690,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9883,8 +10729,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9916,8 +10768,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +10807,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9982,8 +10846,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10015,8 +10885,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10048,8 +10924,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10081,8 +10963,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10114,8 +11002,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10147,8 +11041,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10180,8 +11080,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10213,8 +11119,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10246,8 +11158,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10279,8 +11197,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +11233,17 @@
         <v>1290.962798190005</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +11272,17 @@
         <v>1291.062798190005</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +11311,17 @@
         <v>830.8496981900048</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +11350,17 @@
         <v>1091.318798190005</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +11389,17 @@
         <v>956.1163981900048</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10474,11 +11428,17 @@
         <v>961.4851981900048</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10510,8 +11470,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10543,8 +11509,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +11545,17 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +11584,17 @@
         <v>829.4451981900047</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +11623,17 @@
         <v>829.5451981900047</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10672,11 +11662,17 @@
         <v>728.2029981900047</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +11701,17 @@
         <v>320.1733981900047</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +11740,17 @@
         <v>570.1733981900047</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +11779,17 @@
         <v>564.6451981900047</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +11818,17 @@
         <v>564.7451981900048</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10837,11 +11857,17 @@
         <v>-11.97130180999523</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +11896,17 @@
         <v>-10.97130180999523</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +11935,17 @@
         <v>-8.971301809995225</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10936,11 +11974,17 @@
         <v>-52.97130180999523</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10969,11 +12013,17 @@
         <v>-120.4852018099952</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11005,8 +12055,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11038,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11071,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +12169,17 @@
         <v>184.1714981900048</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11137,8 +12211,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11170,8 +12250,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11203,8 +12289,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +12325,17 @@
         <v>205.5404762600048</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11266,11 +12364,17 @@
         <v>305.1404762600048</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11299,11 +12403,17 @@
         <v>375.1803762600048</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +12442,17 @@
         <v>373.4247762600048</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +12481,17 @@
         <v>450.7547762600047</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11398,11 +12520,17 @@
         <v>568.7128762600048</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11431,11 +12559,17 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +12598,17 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11497,11 +12637,17 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11530,11 +12676,17 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11563,11 +12715,17 @@
         <v>125.3594762600048</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11596,11 +12754,17 @@
         <v>214.6808762600048</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11629,11 +12793,17 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +12832,17 @@
         <v>203.7068762600048</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11695,11 +12871,17 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +12910,17 @@
         <v>962.7068762600047</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +12949,17 @@
         <v>1331.738476260005</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +12988,17 @@
         <v>1261.362176260005</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +13027,17 @@
         <v>1261.462176260005</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +13066,17 @@
         <v>2541.463776260005</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +13105,17 @@
         <v>2588.363776260005</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +13144,17 @@
         <v>1983.494676260005</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11959,11 +13183,17 @@
         <v>2398.494676260005</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +13222,17 @@
         <v>3096.150176260005</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +13261,17 @@
         <v>3440.814276260005</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12058,11 +13300,17 @@
         <v>-1580.754623739995</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12091,11 +13339,17 @@
         <v>-755.2546237399952</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +13378,17 @@
         <v>-1718.658423739995</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12157,11 +13417,17 @@
         <v>-1463.658423739995</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +13456,17 @@
         <v>-1639.931723739995</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12223,11 +13495,17 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12256,11 +13534,17 @@
         <v>1466.820176260005</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12289,11 +13573,17 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +13612,17 @@
         <v>2666.820176260005</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12355,11 +13651,17 @@
         <v>2526.820176260005</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12388,11 +13690,17 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +13729,17 @@
         <v>2526.920176260005</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +13768,17 @@
         <v>2429.620176260004</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12487,11 +13807,17 @@
         <v>1964.604876260004</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12520,11 +13846,17 @@
         <v>2021.130576260004</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12553,11 +13885,17 @@
         <v>2022.130576260004</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +13924,17 @@
         <v>1484.753476260004</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +13963,17 @@
         <v>1571.724676260004</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12652,11 +14002,17 @@
         <v>1308.496976260004</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +14041,17 @@
         <v>837.4969762600044</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +14080,17 @@
         <v>931.5969762600045</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12751,11 +14119,17 @@
         <v>733.3082762600045</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12784,11 +14158,17 @@
         <v>693.5942762600046</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12820,8 +14200,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12853,8 +14239,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +14275,17 @@
         <v>-1283.037723739995</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12916,11 +14314,17 @@
         <v>-1033.037723739995</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12949,11 +14353,17 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12982,11 +14392,17 @@
         <v>-924.0377237399953</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13015,11 +14431,17 @@
         <v>-977.0020237399953</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13048,11 +14470,17 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13081,11 +14509,17 @@
         <v>-979.9663237399952</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13114,11 +14548,17 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13147,11 +14587,17 @@
         <v>-1434.866923739995</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13180,11 +14626,17 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13213,11 +14665,17 @@
         <v>-1434.766923739995</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13246,11 +14704,17 @@
         <v>-1455.598723739995</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13279,11 +14743,17 @@
         <v>-1710.979823739995</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13312,11 +14782,17 @@
         <v>-2121.042123739995</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13345,11 +14821,17 @@
         <v>-1361.732923739995</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13378,11 +14860,17 @@
         <v>-962.805123739995</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13411,11 +14899,17 @@
         <v>-567.079423739995</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13444,11 +14938,17 @@
         <v>-859.6816237399951</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13477,11 +14977,17 @@
         <v>-346.655523739995</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13513,8 +15019,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +15055,17 @@
         <v>160.041276260005</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13579,8 +15097,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13612,8 +15136,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13645,8 +15175,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +15211,17 @@
         <v>-404.4509237399951</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13708,11 +15250,17 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13741,11 +15289,17 @@
         <v>-123.0705237399951</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13774,11 +15328,17 @@
         <v>-330.222623739995</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13807,11 +15367,17 @@
         <v>-224.070523739995</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13840,11 +15406,17 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13873,11 +15445,17 @@
         <v>-264.709323739995</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +15484,17 @@
         <v>-136.232623739995</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13939,11 +15523,17 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13972,11 +15562,17 @@
         <v>-150.808923739995</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14008,8 +15604,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14041,8 +15643,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14074,8 +15682,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +15721,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14140,8 +15760,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14173,8 +15799,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14206,8 +15838,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14239,8 +15877,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14272,8 +15916,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14302,11 +15952,17 @@
         <v>-1526.551926909995</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14335,11 +15991,17 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14368,11 +16030,17 @@
         <v>-1628.851926909995</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +16069,17 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14434,11 +16108,17 @@
         <v>-1643.751026909995</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +16147,17 @@
         <v>-2237.020226909995</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +16186,17 @@
         <v>-1622.980326909995</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14536,8 +16228,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14569,8 +16267,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14602,8 +16306,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14635,8 +16345,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14668,8 +16384,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14701,8 +16423,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14734,8 +16462,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14767,8 +16501,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +16537,17 @@
         <v>-275.5780269099951</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14830,11 +16576,17 @@
         <v>-375.6780269099951</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14863,11 +16615,17 @@
         <v>862.221973090005</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14896,11 +16654,17 @@
         <v>862.221973090005</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14929,11 +16693,17 @@
         <v>862.221973090005</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14962,11 +16732,17 @@
         <v>862.221973090005</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14998,8 +16774,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +16810,17 @@
         <v>762.221973090005</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +16849,17 @@
         <v>248.9966730900051</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15097,8 +16891,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15130,8 +16930,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15163,8 +16969,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15196,8 +17008,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15229,8 +17047,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15262,8 +17086,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15295,8 +17125,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15328,8 +17164,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15361,8 +17203,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15394,8 +17242,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15427,8 +17281,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15460,8 +17320,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15493,8 +17359,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15526,8 +17398,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15559,8 +17437,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15592,8 +17476,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15625,8 +17515,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15658,8 +17554,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15691,8 +17593,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15724,8 +17632,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15757,8 +17671,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15790,8 +17710,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15823,8 +17749,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15856,8 +17788,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15889,8 +17827,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15922,8 +17866,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15955,8 +17905,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15988,8 +17944,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16021,8 +17983,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16054,8 +18022,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16087,8 +18061,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16120,8 +18100,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16153,8 +18139,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16186,8 +18178,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16219,8 +18217,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16252,8 +18256,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16285,8 +18295,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16318,8 +18334,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +18370,17 @@
         <v>-15137.02247737999</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16381,11 +18409,17 @@
         <v>-12873.50045371999</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16414,11 +18448,17 @@
         <v>-9606.30585371999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16447,11 +18487,17 @@
         <v>-6855.210853719991</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16480,11 +18526,17 @@
         <v>-8164.692153719991</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16513,11 +18565,17 @@
         <v>-7768.739853719991</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16546,11 +18604,17 @@
         <v>-3962.633153719991</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16582,8 +18646,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +18685,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16648,8 +18724,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16681,8 +18763,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16714,8 +18802,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16747,8 +18841,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16780,8 +18880,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16813,8 +18919,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16846,8 +18958,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16879,8 +18997,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16912,8 +19036,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16945,8 +19075,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16978,8 +19114,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17011,8 +19153,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17044,8 +19192,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17077,8 +19231,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17110,8 +19270,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17143,8 +19309,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17176,8 +19348,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17209,8 +19387,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17242,8 +19426,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17275,8 +19465,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17308,8 +19504,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17341,8 +19543,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17374,8 +19582,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17407,8 +19621,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17440,8 +19660,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17473,8 +19699,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17506,8 +19738,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17539,8 +19777,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17572,8 +19816,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17602,13 +19852,19 @@
         <v>37047.01521468</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2468</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L499" t="n">
-        <v>1</v>
+        <v>1.040786061588331</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
@@ -17635,7 +19891,7 @@
         <v>40534.34588160001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17668,7 +19924,7 @@
         <v>43240.88348098</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17701,7 +19957,7 @@
         <v>38457.43888098</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17734,7 +19990,7 @@
         <v>37001.67468098</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17767,7 +20023,7 @@
         <v>36995.67468098</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17800,7 +20056,7 @@
         <v>37090.67468098</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17833,7 +20089,7 @@
         <v>35547.35108098</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17866,7 +20122,7 @@
         <v>36261.83478098</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17899,7 +20155,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17932,7 +20188,7 @@
         <v>35139.9879943</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17965,7 +20221,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17998,7 +20254,7 @@
         <v>35232.1911943</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18031,7 +20287,7 @@
         <v>35504.2683943</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18064,7 +20320,7 @@
         <v>34876.2432943</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18097,7 +20353,7 @@
         <v>34871.2432943</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18130,7 +20386,7 @@
         <v>35636.0723943</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18163,7 +20419,7 @@
         <v>35697.92259430001</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
